--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1308571.197308417</v>
+        <v>1306319.117597209</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283201</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.35684107511872</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826018</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>53.7634345605265</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.7793708383988</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>329.4969580972631</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.90969376287366</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>150.2062474346978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8528437613046</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045342</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.8518831495038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.8107367464756</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611470502</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>106.997776813539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.04917322725558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>173.1371582055054</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161893266</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W31" t="n">
-        <v>201.7490817309711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.5697888787481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819418</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>38.05096575280767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.294096136280004</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3283.831234664607</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3077.853487048829</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2824.323010322666</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2824.323010322666</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.361223971664</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1969.42314369238</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C5" t="n">
-        <v>1600.460626751969</v>
+        <v>1312.873537264415</v>
       </c>
       <c r="D5" t="n">
-        <v>1242.194928145218</v>
+        <v>954.6078386576646</v>
       </c>
       <c r="E5" t="n">
-        <v>856.4066755469739</v>
+        <v>568.8195860594203</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>561.8740853102169</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>146.8016351552133</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3119.628073993394</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2746.162315732314</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>2356.022983756502</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,28 +4632,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,13 +4665,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308158</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760996</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162752</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>651.398518373144</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.00073137228</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191927</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349518</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616112</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,61 +5173,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
         <v>1688.385853854707</v>
@@ -5236,13 +5236,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.70136564882</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,13 +5534,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2022.176527098168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876672</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597603</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474246</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>261.8464821474246</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614371</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>762.547769317907</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,28 +6932,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6965,22 +6965,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797186</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2341.482060890433</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.73277020259101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.77391660561915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.5956654067419</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>44.26829212178288</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067419</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9753202488369</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837041</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837041</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837041</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1033797.747428548</v>
       </c>
       <c r="C6" t="n">
+        <v>294946.9982990438</v>
+      </c>
+      <c r="D6" t="n">
         <v>294946.9982990442</v>
       </c>
-      <c r="D6" t="n">
-        <v>294946.9982990444</v>
-      </c>
       <c r="E6" t="n">
-        <v>47195.87989595966</v>
+        <v>47161.1419705243</v>
       </c>
       <c r="F6" t="n">
-        <v>372608.3417033157</v>
+        <v>372573.6037778797</v>
       </c>
       <c r="G6" t="n">
-        <v>372608.3417033154</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="H6" t="n">
-        <v>372608.3417033154</v>
+        <v>372573.6037778795</v>
       </c>
       <c r="I6" t="n">
-        <v>372608.3417033152</v>
+        <v>372573.6037778794</v>
       </c>
       <c r="J6" t="n">
-        <v>155077.1393060378</v>
+        <v>155042.4013806021</v>
       </c>
       <c r="K6" t="n">
-        <v>372608.3417033153</v>
+        <v>372573.6037778794</v>
       </c>
       <c r="L6" t="n">
-        <v>372608.3417033153</v>
+        <v>372573.6037778793</v>
       </c>
       <c r="M6" t="n">
-        <v>287553.3137678036</v>
+        <v>287518.5758423679</v>
       </c>
       <c r="N6" t="n">
-        <v>372608.3417033154</v>
+        <v>372573.6037778793</v>
       </c>
       <c r="O6" t="n">
-        <v>372608.3417033153</v>
+        <v>372573.6037778795</v>
       </c>
       <c r="P6" t="n">
-        <v>372608.3417033153</v>
+        <v>372573.6037778797</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>67.83092071305711</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734518</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>232.7595637760645</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>32.80528251369597</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>77.3790876444483</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>256.6980706244468</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>79.09653893143596</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>101.9313958891302</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6143028739349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.0026523482567</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>613.2529048371025</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319833</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,25 +33737,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875389</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
